--- a/DATA_goal/Junction_Flooding_212.xlsx
+++ b/DATA_goal/Junction_Flooding_212.xlsx
@@ -448,7 +448,7 @@
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
@@ -456,7 +456,7 @@
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
@@ -467,7 +467,7 @@
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
@@ -655,103 +655,103 @@
         <v>41644.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>19.99</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>13.5</v>
+        <v>1.35</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.06</v>
+        <v>0.41</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>42.37</v>
+        <v>4.24</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>34.31</v>
+        <v>3.43</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.73</v>
+        <v>1.57</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>50.4</v>
+        <v>5.04</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>24.2</v>
+        <v>2.42</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>10.14</v>
+        <v>1.01</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>15.42</v>
+        <v>1.54</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.71</v>
+        <v>1.67</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>17.43</v>
+        <v>1.74</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.02</v>
+        <v>0.5</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>15.64</v>
+        <v>1.56</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>21.87</v>
+        <v>2.19</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>13.3</v>
+        <v>1.33</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.49</v>
+        <v>0.35</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.26</v>
+        <v>0.23</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>230.71</v>
+        <v>23.07</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>43.5</v>
+        <v>4.35</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>14.44</v>
+        <v>1.44</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>28.77</v>
+        <v>2.88</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>14.79</v>
+        <v>1.48</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.95</v>
+        <v>0.3</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>25.32</v>
+        <v>2.53</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.75</v>
+        <v>1.28</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.55</v>
+        <v>1.15</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>17.18</v>
+        <v>1.72</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>44.68</v>
+        <v>4.47</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.01</v>
+        <v>0.8</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>18.05</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41644.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>10.19</v>
+        <v>1.02</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.94</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.6</v>
+        <v>0.16</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>21.84</v>
+        <v>2.18</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>17.58</v>
+        <v>1.76</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>8.02</v>
+        <v>0.8</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>33.12</v>
+        <v>3.31</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>12.33</v>
+        <v>1.23</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.22</v>
+        <v>0.52</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.71</v>
+        <v>0.77</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.74</v>
+        <v>0.87</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.050000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.56</v>
+        <v>0.26</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.97</v>
+        <v>0.8</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>11.16</v>
+        <v>1.12</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7</v>
+        <v>0.7</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>114.01</v>
+        <v>11.4</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>22.41</v>
+        <v>2.24</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.36</v>
+        <v>0.74</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>14.73</v>
+        <v>1.47</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.65</v>
+        <v>0.77</v>
       </c>
       <c r="Y3" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Z3" s="4" t="n">
         <v>1.57</v>
       </c>
-      <c r="Z3" s="4" t="n">
-        <v>15.7</v>
-      </c>
       <c r="AA3" s="4" t="n">
-        <v>6.5</v>
+        <v>0.65</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.98</v>
+        <v>0.6</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.99</v>
+        <v>0.7</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>30.27</v>
+        <v>3.03</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41644.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>19.79</v>
+        <v>1.98</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>14.41</v>
+        <v>1.44</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>22.84</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="V4" s="4" t="n">
         <v>1.43</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>35.09</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>15.58</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>58.43</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>23.97</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>15.65</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>17.23</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>18.08</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>15.49</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>21.96</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>228.45</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>43.27</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>14.3</v>
-      </c>
       <c r="W4" s="4" t="n">
-        <v>28.98</v>
+        <v>2.9</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>15.22</v>
+        <v>1.52</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.41</v>
+        <v>0.24</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>28.54</v>
+        <v>2.85</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>12.63</v>
+        <v>1.26</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>13.24</v>
+        <v>1.32</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>17.96</v>
+        <v>1.8</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>52.91</v>
+        <v>5.29</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>8.02</v>
+        <v>0.8</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>17.88</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41644.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21.23</v>
+        <v>2.12</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.61</v>
+        <v>1.56</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>46.1</v>
+        <v>4.61</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>37.8</v>
+        <v>3.78</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>16.71</v>
+        <v>1.67</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>64.93000000000001</v>
+        <v>6.49</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>25.71</v>
+        <v>2.57</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.4</v>
+        <v>1.14</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>16.9</v>
+        <v>1.69</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>18.52</v>
+        <v>1.85</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>19.48</v>
+        <v>1.95</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.34</v>
+        <v>0.53</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.62</v>
+        <v>1.66</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>23.63</v>
+        <v>2.36</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.02</v>
+        <v>1.4</v>
       </c>
       <c r="R5" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>24.56</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="AG5" s="4" t="n">
         <v>0.86</v>
       </c>
-      <c r="S5" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>245.62</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>46.48</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>15.34</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>31.49</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>13.55</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>14.14</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>19.36</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>58.94</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>8.640000000000001</v>
-      </c>
       <c r="AH5" s="4" t="n">
-        <v>19.18</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41644.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>22.68</v>
+        <v>2.27</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>16.76</v>
+        <v>1.68</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>49.26</v>
+        <v>4.93</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>40.46</v>
+        <v>4.05</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>17.84</v>
+        <v>1.78</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>69.63</v>
+        <v>6.96</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>27.46</v>
+        <v>2.75</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>12.21</v>
+        <v>1.22</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>18.13</v>
+        <v>1.81</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>19.79</v>
+        <v>1.98</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>20.85</v>
+        <v>2.08</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>5.7</v>
+        <v>0.57</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>17.75</v>
+        <v>1.77</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>25.28</v>
+        <v>2.53</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>14.92</v>
+        <v>1.49</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>262.8</v>
+        <v>26.28</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>49.64</v>
+        <v>4.96</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>16.38</v>
+        <v>1.64</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>33.41</v>
+        <v>3.34</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>17.54</v>
+        <v>1.75</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.57</v>
+        <v>0.26</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>33.74</v>
+        <v>3.37</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>14.47</v>
+        <v>1.45</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>12.81</v>
+        <v>1.28</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>15.06</v>
+        <v>1.51</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>20.73</v>
+        <v>2.07</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>63.19</v>
+        <v>6.32</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>9.25</v>
+        <v>0.92</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>20.48</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41644.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>6.92</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>4.97</v>
+        <v>0.5</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>12.17</v>
+        <v>1.22</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>5.44</v>
+        <v>0.54</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>26.58</v>
+        <v>2.66</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>3.7</v>
+        <v>0.37</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>5.36</v>
+        <v>0.54</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>6.04</v>
+        <v>0.6</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>6.32</v>
+        <v>0.63</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>1.75</v>
+        <v>0.17</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>7.71</v>
+        <v>0.77</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>4.67</v>
+        <v>0.47</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>75.12</v>
+        <v>7.51</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>15.38</v>
+        <v>1.54</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>10.26</v>
+        <v>1.03</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>5.32</v>
+        <v>0.53</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>12.23</v>
+        <v>1.22</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>4.41</v>
+        <v>0.44</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>3.98</v>
+        <v>0.4</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>4.66</v>
+        <v>0.47</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>6.29</v>
+        <v>0.63</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>24.45</v>
+        <v>2.44</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>2.77</v>
+        <v>0.28</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>6.25</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41644.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>6.92</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="D8" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X8" s="4" t="n">
         <v>0.53</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>15.01</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>22.27</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="R8" s="4" t="n">
+      <c r="Y8" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AA8" s="4" t="n">
         <v>0.44</v>
       </c>
-      <c r="S8" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>75.06999999999999</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>15.15</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>4.41</v>
-      </c>
       <c r="AB8" s="4" t="n">
-        <v>3.96</v>
+        <v>0.4</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>4.65</v>
+        <v>0.46</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>6.3</v>
+        <v>0.63</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>20.14</v>
+        <v>2.01</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>6.25</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41644.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>2.4</v>
+        <v>0.24</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>1.64</v>
+        <v>0.16</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>5.2</v>
+        <v>0.52</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>4.11</v>
+        <v>0.41</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>1.89</v>
+        <v>0.19</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>10.51</v>
+        <v>1.05</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>2.91</v>
+        <v>0.29</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>1.28</v>
+        <v>0.13</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>1.75</v>
+        <v>0.17</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>2.1</v>
+        <v>0.21</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>2.17</v>
+        <v>0.22</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>1.88</v>
+        <v>0.19</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>2.69</v>
+        <v>0.27</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>1.7</v>
+        <v>0.17</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="V9" s="4" t="n">
         <v>0.17</v>
       </c>
-      <c r="T9" s="4" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.74</v>
-      </c>
       <c r="W9" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>1.85</v>
+        <v>0.19</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>4.8</v>
+        <v>0.48</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>1.66</v>
+        <v>0.17</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>2.17</v>
+        <v>0.22</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>9.77</v>
+        <v>0.98</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>2.17</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41644.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>14.41</v>
+        <v>1.44</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>10.68</v>
+        <v>1.07</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>31.33</v>
+        <v>3.13</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>25.73</v>
+        <v>2.57</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>11.34</v>
+        <v>1.13</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>39.59</v>
+        <v>3.96</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>17.45</v>
+        <v>1.75</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>7.75</v>
+        <v>0.78</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>11.53</v>
+        <v>1.15</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>12.59</v>
+        <v>1.26</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>13.27</v>
+        <v>1.33</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.62</v>
+        <v>0.36</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>16.03</v>
+        <v>1.6</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>164.32</v>
+        <v>16.43</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>31.38</v>
+        <v>3.14</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>21.13</v>
+        <v>2.11</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>11.14</v>
+        <v>1.11</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.62</v>
+        <v>0.16</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>19.71</v>
+        <v>1.97</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>9.57</v>
+        <v>0.96</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>13.2</v>
+        <v>1.32</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>35.58</v>
+        <v>3.56</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>5.88</v>
+        <v>0.59</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>13.02</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_212.xlsx
+++ b/DATA_goal/Junction_Flooding_212.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,8 +448,8 @@
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
@@ -467,7 +467,7 @@
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41644.34027777778</v>
+        <v>44893.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2</v>
+        <v>1.23</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.35</v>
+        <v>0.82</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.24</v>
+        <v>2.67</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.43</v>
+        <v>1.98</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.57</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.04</v>
+        <v>2.78</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.42</v>
+        <v>1.51</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.01</v>
+        <v>0.6</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.54</v>
+        <v>0.87</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.67</v>
+        <v>1.05</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.74</v>
+        <v>1.14</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.5</v>
+        <v>0.31</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.56</v>
+        <v>0.98</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.19</v>
+        <v>1.33</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.33</v>
+        <v>0.88</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.35</v>
+        <v>0.27</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>23.07</v>
+        <v>14.14</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.35</v>
+        <v>2.7</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.44</v>
+        <v>0.9</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.88</v>
+        <v>1.72</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.48</v>
+        <v>0.89</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.53</v>
+        <v>1.53</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.28</v>
+        <v>0.8</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.15</v>
+        <v>0.74</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.35</v>
+        <v>0.85</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.72</v>
+        <v>1.1</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.47</v>
+        <v>2.52</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.8</v>
+        <v>0.47</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.8</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41644.34722222222</v>
+        <v>44893.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.02</v>
+        <v>2.39</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.75</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.18</v>
+        <v>5.22</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.76</v>
+        <v>4.19</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.8</v>
+        <v>1.86</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.31</v>
+        <v>6.97</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.23</v>
+        <v>2.91</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.52</v>
+        <v>1.27</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.77</v>
+        <v>1.87</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.87</v>
+        <v>2.09</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.91</v>
+        <v>2.23</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.26</v>
+        <v>0.6</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.8</v>
+        <v>1.88</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.12</v>
+        <v>2.66</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.7</v>
+        <v>1.61</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>11.4</v>
+        <v>27.88</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.24</v>
+        <v>5.25</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.74</v>
+        <v>1.74</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.47</v>
+        <v>3.5</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.77</v>
+        <v>1.83</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.57</v>
+        <v>3.49</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.65</v>
+        <v>1.53</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.6</v>
+        <v>1.37</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.7</v>
+        <v>1.61</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.9</v>
+        <v>2.19</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.03</v>
+        <v>6.37</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.4</v>
+        <v>0.96</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.92</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41644.35416666666</v>
+        <v>44893.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.98</v>
+        <v>0.37</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.44</v>
+        <v>0.26</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AG4" s="4" t="n">
         <v>0.14</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>22.84</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AF4" s="4" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="AG4" s="4" t="n">
-        <v>0.8</v>
-      </c>
       <c r="AH4" s="4" t="n">
-        <v>1.79</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41644.36111111111</v>
+        <v>44893.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.12</v>
+        <v>0.52</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.56</v>
+        <v>0.37</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N5" s="4" t="n">
         <v>0.13</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.53</v>
-      </c>
       <c r="O5" s="4" t="n">
-        <v>1.66</v>
+        <v>0.41</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.36</v>
+        <v>0.57</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.4</v>
+        <v>0.37</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>24.56</v>
+        <v>5.56</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.65</v>
+        <v>1.15</v>
       </c>
       <c r="V5" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AF5" s="4" t="n">
         <v>1.53</v>
       </c>
-      <c r="W5" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>5.89</v>
-      </c>
       <c r="AG5" s="4" t="n">
-        <v>0.86</v>
+        <v>0.2</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.92</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41644.36805555555</v>
+        <v>44893.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2.27</v>
+        <v>23.94</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.68</v>
+        <v>17.86</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.12</v>
+        <v>1.23</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>4.93</v>
+        <v>52.25</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>4.05</v>
+        <v>42.69</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.78</v>
+        <v>18.78</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>6.96</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.75</v>
+        <v>29.09</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.22</v>
+        <v>12.93</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.81</v>
+        <v>19.15</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.98</v>
+        <v>20.96</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>2.08</v>
+        <v>22.27</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.57</v>
+        <v>6.04</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.77</v>
+        <v>18.8</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>2.53</v>
+        <v>26.76</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.49</v>
+        <v>15.81</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.08</v>
+        <v>0.89</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>26.28</v>
+        <v>278.81</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>4.96</v>
+        <v>52.48</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.64</v>
+        <v>17.35</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>3.34</v>
+        <v>35.32</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.75</v>
+        <v>18.54</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.26</v>
+        <v>2.7</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>3.37</v>
+        <v>34.23</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.45</v>
+        <v>15.33</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.28</v>
+        <v>13.56</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.51</v>
+        <v>15.95</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>2.07</v>
+        <v>22.02</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>6.32</v>
+        <v>62.29</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.92</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41644.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41644.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41644.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41644.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41644.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>22.87</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>17.05</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>49.73</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>40.96</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>68.02</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>27.69</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>18.41</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>19.97</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>21.09</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>25.54</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>14.94</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>265.08</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>50.02</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>16.52</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>33.78</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>17.74</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>14.59</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>12.86</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>15.13</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>20.96</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>61.81</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>20.65</v>
+        <v>21.69</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_212.xlsx
+++ b/DATA_goal/Junction_Flooding_212.xlsx
@@ -449,7 +449,7 @@
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
@@ -655,103 +655,103 @@
         <v>44893.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.23</v>
+        <v>12.34</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.24</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.67</v>
+        <v>26.72</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.98</v>
+        <v>19.8</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.78</v>
+        <v>27.82</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.51</v>
+        <v>15.12</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.6</v>
+        <v>5.95</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.87</v>
+        <v>8.67</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.05</v>
+        <v>10.52</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.14</v>
+        <v>11.37</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.98</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.32</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.83</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.74</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>14.14</v>
+        <v>141.4</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.7</v>
+        <v>27.01</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.72</v>
+        <v>17.24</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.89</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.65</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.53</v>
+        <v>15.25</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.4</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.85</v>
+        <v>8.52</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.1</v>
+        <v>11.03</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.86</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.52</v>
+        <v>25.23</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.47</v>
+        <v>4.73</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44893.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.39</v>
+        <v>23.9</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.75</v>
+        <v>17.51</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.2</v>
+        <v>2.01</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.22</v>
+        <v>52.19</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.19</v>
+        <v>41.94</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.86</v>
+        <v>18.65</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.97</v>
+        <v>69.67</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.91</v>
+        <v>29.09</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.27</v>
+        <v>12.71</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.87</v>
+        <v>18.67</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.09</v>
+        <v>20.88</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.23</v>
+        <v>22.27</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.6</v>
+        <v>6.04</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.88</v>
+        <v>18.8</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.66</v>
+        <v>26.58</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.61</v>
+        <v>16.09</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.23</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>27.88</v>
+        <v>278.81</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>5.25</v>
+        <v>52.53</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.74</v>
+        <v>17.35</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.5</v>
+        <v>35.01</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.83</v>
+        <v>18.32</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.49</v>
+        <v>34.88</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.33</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.37</v>
+        <v>13.71</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.61</v>
+        <v>16.08</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.19</v>
+        <v>21.9</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>6.37</v>
+        <v>63.73</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.96</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.17</v>
+        <v>21.69</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44893.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.55</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.34</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.07</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.84</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.87</v>
+        <v>18.74</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.65</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.95</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.53</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.32</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.65</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.3</v>
+        <v>3.01</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.23</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.85</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>3.85</v>
+        <v>38.54</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.88</v>
+        <v>8.83</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.57</v>
+        <v>5.67</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.83</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.57</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.45</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.35</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.72</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.46</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.78</v>
+        <v>17.82</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44893.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.73</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.48</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.89</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.4</v>
+        <v>4.01</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.69</v>
+        <v>16.87</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.4</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.69</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.84</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.59</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.5</v>
+        <v>4.98</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.14</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.57</v>
+        <v>5.74</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.72</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>5.56</v>
+        <v>55.6</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.54</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.82</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.49</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.93</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.79</v>
+        <v>7.93</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.11</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.63</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.81</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.53</v>
+        <v>15.35</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.2</v>
+        <v>2.03</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_212.xlsx
+++ b/DATA_goal/Junction_Flooding_212.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,79 +655,79 @@
         <v>44893.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>12.34</v>
+        <v>12.343</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.24</v>
+        <v>8.237</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.47</v>
+        <v>3.467</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>26.72</v>
+        <v>26.724</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>19.8</v>
+        <v>19.801</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>9.41</v>
+        <v>9.406000000000001</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>27.82</v>
+        <v>27.816</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>15.12</v>
+        <v>15.125</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.95</v>
+        <v>5.951</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>8.67</v>
+        <v>8.669</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>10.52</v>
+        <v>10.525</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>11.37</v>
+        <v>11.375</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.13</v>
+        <v>3.134</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>9.775</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>13.32</v>
+        <v>13.324</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>8.83</v>
+        <v>8.832000000000001</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>2.74</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.54</v>
+        <v>1.542</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>141.4</v>
+        <v>141.399</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>27.01</v>
+        <v>27.009</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>9.02</v>
+        <v>9.023</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>17.24</v>
+        <v>17.239</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>8.882</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>2.65</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>15.25</v>
+        <v>15.251</v>
       </c>
       <c r="AA2" s="4" t="n">
         <v>7.97</v>
@@ -736,22 +736,22 @@
         <v>7.4</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>8.52</v>
+        <v>8.521000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.03</v>
+        <v>11.028</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.86</v>
+        <v>2.858</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>25.23</v>
+        <v>25.233</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.73</v>
+        <v>4.735</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>11.28</v>
+        <v>11.279</v>
       </c>
     </row>
     <row r="3">
@@ -762,100 +762,100 @@
         <v>23.9</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>17.51</v>
+        <v>17.514</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>2.01</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>52.19</v>
+        <v>52.186</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>41.94</v>
+        <v>41.944</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>18.65</v>
+        <v>18.645</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>69.67</v>
+        <v>69.669</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>29.09</v>
+        <v>29.086</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.71</v>
+        <v>12.711</v>
       </c>
       <c r="K3" s="4" t="n">
         <v>18.67</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>20.88</v>
+        <v>20.883</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>22.27</v>
+        <v>22.272</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>6.04</v>
+        <v>6.038</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>18.8</v>
+        <v>18.798</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>26.58</v>
+        <v>26.582</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>16.09</v>
+        <v>16.091</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.43</v>
+        <v>1.433</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.23</v>
+        <v>1.225</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>278.81</v>
+        <v>278.813</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>52.53</v>
+        <v>52.531</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>17.35</v>
+        <v>17.351</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>35.01</v>
+        <v>35.013</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>18.32</v>
+        <v>18.315</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>3.03</v>
+        <v>3.033</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>34.88</v>
+        <v>34.881</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>15.33</v>
+        <v>15.326</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.71</v>
+        <v>13.711</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>16.08</v>
+        <v>16.081</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>21.9</v>
+        <v>21.905</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.16</v>
+        <v>1.162</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>63.73</v>
+        <v>63.731</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.640000000000001</v>
+        <v>9.641999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>21.69</v>
+        <v>21.693</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44893.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.74</v>
+        <v>3.741</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.55</v>
+        <v>2.552</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.88</v>
+        <v>0.879</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>8.34</v>
+        <v>8.336</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>6.07</v>
+        <v>6.067</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>2.84</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>18.74</v>
+        <v>18.739</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.65</v>
+        <v>4.654</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.95</v>
+        <v>1.949</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.53</v>
+        <v>2.529</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.32</v>
+        <v>3.319</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.65</v>
+        <v>3.653</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.98</v>
+        <v>0.982</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.01</v>
+        <v>3.008</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.23</v>
+        <v>4.225</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.87</v>
+        <v>2.871</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.85</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.435</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>38.54</v>
+        <v>38.541</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>8.83</v>
+        <v>8.827999999999999</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.78</v>
+        <v>2.776</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>5.67</v>
+        <v>5.671</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.83</v>
+        <v>2.825</v>
       </c>
       <c r="Y4" s="4" t="n">
         <v>0.77</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>8.57</v>
+        <v>8.574999999999999</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.45</v>
+        <v>2.452</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.35</v>
+        <v>2.348</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.72</v>
+        <v>2.722</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.46</v>
+        <v>3.457</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.73</v>
+        <v>0.732</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>17.82</v>
+        <v>17.823</v>
       </c>
       <c r="AG4" s="4" t="n">
         <v>1.4</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.47</v>
+        <v>3.475</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>4.77</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44893.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>23.94</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>17.86</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>52.25</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>42.69</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>18.78</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>29.09</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>12.93</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>19.15</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>20.96</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>22.27</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>26.76</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>15.81</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>278.81</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>52.48</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>17.35</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>35.32</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>18.54</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>34.23</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>15.33</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>13.56</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>62.29</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>21.69</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_212.xlsx
+++ b/DATA_goal/Junction_Flooding_212.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44893.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.2</v>
+        <v>5.196</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>3.73</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.72</v>
+        <v>0.721</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11.48</v>
+        <v>11.484</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>8.867000000000001</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.01</v>
+        <v>4.013</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>16.87</v>
+        <v>16.869</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.4</v>
+        <v>6.399</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.69</v>
+        <v>2.694</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.84</v>
+        <v>3.837</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.59</v>
+        <v>4.594</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.98</v>
+        <v>4.977</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.33</v>
+        <v>1.327</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.14</v>
+        <v>4.136</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.74</v>
+        <v>5.744</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.72</v>
+        <v>3.722</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.66</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.39</v>
+        <v>0.386</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>55.6</v>
+        <v>55.596</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>11.54</v>
+        <v>11.537</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.82</v>
+        <v>3.817</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>7.49</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.93</v>
+        <v>3.927</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.827</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>7.93</v>
+        <v>7.934</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.37</v>
+        <v>3.372</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.11</v>
+        <v>3.107</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>3.63</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.81</v>
+        <v>4.809</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.535</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>15.35</v>
+        <v>15.349</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.03</v>
+        <v>2.033</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.77</v>
+        <v>4.772</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44893.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>17.86</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>52.25</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>42.69</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>12.93</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>19.15</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>20.96</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>22.27</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>26.76</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>15.81</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>278.81</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>52.48</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>17.35</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>35.32</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>18.54</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>34.23</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>62.29</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>21.69</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_212.xlsx
+++ b/DATA_goal/Junction_Flooding_212.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44893.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.196</v>
+        <v>5.2</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>3.73</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.721</v>
+        <v>0.72</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11.484</v>
+        <v>11.48</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>8.867000000000001</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.013</v>
+        <v>4.01</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>16.869</v>
+        <v>16.87</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.399</v>
+        <v>6.4</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.694</v>
+        <v>2.69</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.837</v>
+        <v>3.84</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.594</v>
+        <v>4.59</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.977</v>
+        <v>4.98</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.327</v>
+        <v>1.33</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.136</v>
+        <v>4.14</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.744</v>
+        <v>5.74</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.722</v>
+        <v>3.72</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.66</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.386</v>
+        <v>0.39</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>55.596</v>
+        <v>55.6</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>11.537</v>
+        <v>11.54</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.817</v>
+        <v>3.82</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>7.49</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.927</v>
+        <v>3.93</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.827</v>
+        <v>0.83</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>7.934</v>
+        <v>7.93</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.372</v>
+        <v>3.37</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.107</v>
+        <v>3.11</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>3.63</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.809</v>
+        <v>4.81</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.535</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>15.349</v>
+        <v>15.35</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.033</v>
+        <v>2.03</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.772</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44893.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>23.94</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>17.86</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>52.25</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>42.69</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>18.78</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>29.09</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>12.93</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>19.15</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>20.96</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>22.27</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>26.76</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>15.81</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>278.81</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>52.48</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>17.35</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>35.32</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>18.54</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>34.23</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>15.33</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>13.56</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>62.29</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>21.69</v>
+        <v>4.77</v>
       </c>
     </row>
   </sheetData>
